--- a/src/site/sphinx/memo/ロケールについて.xlsx
+++ b/src/site/sphinx/memo/ロケールについて.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DF546384-E5EB-44A3-842E-29DB9DBC7AC7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="990" windowWidth="25095" windowHeight="10575" activeTab="1"/>
+    <workbookView xWindow="2400" yWindow="990" windowWidth="25095" windowHeight="10575" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ロケール" sheetId="5" r:id="rId1"/>
-    <sheet name="ロケール一覧（まとめ）" sheetId="4" r:id="rId2"/>
+    <sheet name="ロケールについて" sheetId="5" r:id="rId1"/>
+    <sheet name="プロパティ定義" sheetId="4" r:id="rId2"/>
     <sheet name="言語情報(結合)" sheetId="7" r:id="rId3"/>
     <sheet name="言語_国" sheetId="6" r:id="rId4"/>
     <sheet name="Javaロケール結合" sheetId="10" r:id="rId5"/>
     <sheet name="Javaロケール" sheetId="9" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId7"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4425" uniqueCount="1501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4425" uniqueCount="1502">
   <si>
     <t>ズールー語</t>
   </si>
@@ -4842,11 +4841,15 @@
     <t xml:space="preserve">0x0C0C </t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>https://msdn.microsoft.com/ja-jp/library/cc392381.aspx</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -5006,7 +5009,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -5135,11 +5138,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2"/>
+    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -5152,12 +5156,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5199,7 +5206,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5232,9 +5239,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5267,6 +5291,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5442,67 +5483,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C8" sqref="C8:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B8" s="54" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B9" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C9" s="2" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B11" s="54" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C12" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C14" s="2" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
+      <c r="B17" s="54" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>365</v>
       </c>
     </row>
@@ -5560,19 +5601,20 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2"/>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C12" r:id="rId3" xr:uid="{97DA87B7-A68B-4C74-BDE1-2022FF54F63D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N52" workbookViewId="0">
-      <selection activeCell="Q57" sqref="Q57"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12645,11 +12687,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P241"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G119"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20553,17 +20595,18 @@
   </sortState>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G241"/>
   <sheetViews>
-    <sheetView topLeftCell="A220" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -25658,7 +25701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R119"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
@@ -25750,19 +25793,19 @@
         <v>345</v>
       </c>
       <c r="F4" s="40" t="e">
-        <f>VLOOKUP($A4,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" ref="F4:F21" si="0">VLOOKUP($A4,$L$4:$R$110,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G4" s="40" t="e">
-        <f>VLOOKUP($A4,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" ref="G4:G21" si="1">VLOOKUP($A4,$L$4:$R$110,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H4" s="40" t="e">
-        <f>VLOOKUP($A4,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" ref="H4:H21" si="2">VLOOKUP($A4,$L$4:$R$110,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I4" s="40" t="e">
-        <f>VLOOKUP($A4,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" ref="I4:I21" si="3">VLOOKUP($A4,$L$4:$R$110,7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -25796,26 +25839,26 @@
         <v>14337</v>
       </c>
       <c r="D5" s="40" t="str">
-        <f t="shared" ref="D5:D68" si="0">TRIM(SUBSTITUTE(B5, "0x", ""))</f>
+        <f t="shared" ref="D5:D68" si="4">TRIM(SUBSTITUTE(B5, "0x", ""))</f>
         <v>3801</v>
       </c>
       <c r="E5" s="40" t="s">
         <v>339</v>
       </c>
       <c r="F5" s="40" t="str">
-        <f>VLOOKUP($A5,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>ar_AE</v>
       </c>
       <c r="G5" s="40" t="str">
-        <f>VLOOKUP($A5,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>ar</v>
       </c>
       <c r="H5" s="40" t="str">
-        <f>VLOOKUP($A5,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>ae</v>
       </c>
       <c r="I5" s="40">
-        <f>VLOOKUP($A5,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -25849,26 +25892,26 @@
         <v>15361</v>
       </c>
       <c r="D6" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3C01</v>
       </c>
       <c r="E6" s="40" t="s">
         <v>336</v>
       </c>
       <c r="F6" s="40" t="str">
-        <f>VLOOKUP($A6,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>ar_BH</v>
       </c>
       <c r="G6" s="40" t="str">
-        <f>VLOOKUP($A6,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>ar</v>
       </c>
       <c r="H6" s="40" t="str">
-        <f>VLOOKUP($A6,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>bh</v>
       </c>
       <c r="I6" s="40">
-        <f>VLOOKUP($A6,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -25902,26 +25945,26 @@
         <v>5121</v>
       </c>
       <c r="D7" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1401</v>
       </c>
       <c r="E7" s="40" t="s">
         <v>333</v>
       </c>
       <c r="F7" s="40" t="str">
-        <f>VLOOKUP($A7,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>ar_DZ</v>
       </c>
       <c r="G7" s="40" t="str">
-        <f>VLOOKUP($A7,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>ar</v>
       </c>
       <c r="H7" s="40" t="str">
-        <f>VLOOKUP($A7,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>dz</v>
       </c>
       <c r="I7" s="40">
-        <f>VLOOKUP($A7,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -25955,26 +25998,26 @@
         <v>3073</v>
       </c>
       <c r="D8" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0C01</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>330</v>
       </c>
       <c r="F8" s="40" t="str">
-        <f>VLOOKUP($A8,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>ar_EG</v>
       </c>
       <c r="G8" s="40" t="str">
-        <f>VLOOKUP($A8,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>ar</v>
       </c>
       <c r="H8" s="40" t="str">
-        <f>VLOOKUP($A8,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>eg</v>
       </c>
       <c r="I8" s="40">
-        <f>VLOOKUP($A8,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -26008,26 +26051,26 @@
         <v>2049</v>
       </c>
       <c r="D9" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0801</v>
       </c>
       <c r="E9" s="40" t="s">
         <v>327</v>
       </c>
       <c r="F9" s="40" t="str">
-        <f>VLOOKUP($A9,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>ar_IQ</v>
       </c>
       <c r="G9" s="40" t="str">
-        <f>VLOOKUP($A9,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>ar</v>
       </c>
       <c r="H9" s="40" t="str">
-        <f>VLOOKUP($A9,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>iq</v>
       </c>
       <c r="I9" s="40">
-        <f>VLOOKUP($A9,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L9" s="1" t="s">
@@ -26061,26 +26104,26 @@
         <v>11265</v>
       </c>
       <c r="D10" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2C01</v>
       </c>
       <c r="E10" s="40" t="s">
         <v>324</v>
       </c>
       <c r="F10" s="40" t="str">
-        <f>VLOOKUP($A10,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>ar_JO</v>
       </c>
       <c r="G10" s="40" t="str">
-        <f>VLOOKUP($A10,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>ar</v>
       </c>
       <c r="H10" s="40" t="str">
-        <f>VLOOKUP($A10,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>jo</v>
       </c>
       <c r="I10" s="40">
-        <f>VLOOKUP($A10,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -26114,26 +26157,26 @@
         <v>13313</v>
       </c>
       <c r="D11" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3401</v>
       </c>
       <c r="E11" s="40" t="s">
         <v>321</v>
       </c>
       <c r="F11" s="40" t="str">
-        <f>VLOOKUP($A11,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>ar_KW</v>
       </c>
       <c r="G11" s="40" t="str">
-        <f>VLOOKUP($A11,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>ar</v>
       </c>
       <c r="H11" s="40" t="str">
-        <f>VLOOKUP($A11,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>kw</v>
       </c>
       <c r="I11" s="40">
-        <f>VLOOKUP($A11,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L11" s="1" t="s">
@@ -26167,26 +26210,26 @@
         <v>12289</v>
       </c>
       <c r="D12" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3001</v>
       </c>
       <c r="E12" s="40" t="s">
         <v>318</v>
       </c>
       <c r="F12" s="40" t="str">
-        <f>VLOOKUP($A12,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>ar_LB</v>
       </c>
       <c r="G12" s="40" t="str">
-        <f>VLOOKUP($A12,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>ar</v>
       </c>
       <c r="H12" s="40" t="str">
-        <f>VLOOKUP($A12,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>lb</v>
       </c>
       <c r="I12" s="40">
-        <f>VLOOKUP($A12,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L12" s="1" t="s">
@@ -26220,26 +26263,26 @@
         <v>4097</v>
       </c>
       <c r="D13" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1001</v>
       </c>
       <c r="E13" s="40" t="s">
         <v>315</v>
       </c>
       <c r="F13" s="40" t="str">
-        <f>VLOOKUP($A13,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>ar_LY</v>
       </c>
       <c r="G13" s="40" t="str">
-        <f>VLOOKUP($A13,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>ar</v>
       </c>
       <c r="H13" s="40" t="str">
-        <f>VLOOKUP($A13,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>ly</v>
       </c>
       <c r="I13" s="40">
-        <f>VLOOKUP($A13,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L13" s="1" t="s">
@@ -26273,26 +26316,26 @@
         <v>6145</v>
       </c>
       <c r="D14" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1801</v>
       </c>
       <c r="E14" s="40" t="s">
         <v>312</v>
       </c>
       <c r="F14" s="40" t="str">
-        <f>VLOOKUP($A14,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>ar_MA</v>
       </c>
       <c r="G14" s="40" t="str">
-        <f>VLOOKUP($A14,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>ar</v>
       </c>
       <c r="H14" s="40" t="str">
-        <f>VLOOKUP($A14,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>ma</v>
       </c>
       <c r="I14" s="40">
-        <f>VLOOKUP($A14,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L14" s="1" t="s">
@@ -26326,26 +26369,26 @@
         <v>8193</v>
       </c>
       <c r="D15" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2001</v>
       </c>
       <c r="E15" s="40" t="s">
         <v>309</v>
       </c>
       <c r="F15" s="40" t="str">
-        <f>VLOOKUP($A15,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>ar_OM</v>
       </c>
       <c r="G15" s="40" t="str">
-        <f>VLOOKUP($A15,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>ar</v>
       </c>
       <c r="H15" s="40" t="str">
-        <f>VLOOKUP($A15,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>om</v>
       </c>
       <c r="I15" s="40">
-        <f>VLOOKUP($A15,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L15" s="1" t="s">
@@ -26379,26 +26422,26 @@
         <v>16385</v>
       </c>
       <c r="D16" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4001</v>
       </c>
       <c r="E16" s="40" t="s">
         <v>306</v>
       </c>
       <c r="F16" s="40" t="str">
-        <f>VLOOKUP($A16,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>ar_QA</v>
       </c>
       <c r="G16" s="40" t="str">
-        <f>VLOOKUP($A16,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>ar</v>
       </c>
       <c r="H16" s="40" t="str">
-        <f>VLOOKUP($A16,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>qa</v>
       </c>
       <c r="I16" s="40">
-        <f>VLOOKUP($A16,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L16" s="1" t="s">
@@ -26432,26 +26475,26 @@
         <v>1025</v>
       </c>
       <c r="D17" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0401</v>
       </c>
       <c r="E17" s="40" t="s">
         <v>303</v>
       </c>
       <c r="F17" s="40" t="str">
-        <f>VLOOKUP($A17,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>ar_SA</v>
       </c>
       <c r="G17" s="40" t="str">
-        <f>VLOOKUP($A17,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>ar</v>
       </c>
       <c r="H17" s="40" t="str">
-        <f>VLOOKUP($A17,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>sa</v>
       </c>
       <c r="I17" s="40">
-        <f>VLOOKUP($A17,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L17" s="1" t="s">
@@ -26485,26 +26528,26 @@
         <v>10241</v>
       </c>
       <c r="D18" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2801</v>
       </c>
       <c r="E18" s="40" t="s">
         <v>300</v>
       </c>
       <c r="F18" s="40" t="str">
-        <f>VLOOKUP($A18,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>ar_SY</v>
       </c>
       <c r="G18" s="40" t="str">
-        <f>VLOOKUP($A18,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>ar</v>
       </c>
       <c r="H18" s="40" t="str">
-        <f>VLOOKUP($A18,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>sy</v>
       </c>
       <c r="I18" s="40">
-        <f>VLOOKUP($A18,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L18" s="1" t="s">
@@ -26538,26 +26581,26 @@
         <v>7169</v>
       </c>
       <c r="D19" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1C01</v>
       </c>
       <c r="E19" s="40" t="s">
         <v>297</v>
       </c>
       <c r="F19" s="40" t="str">
-        <f>VLOOKUP($A19,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>ar_TN</v>
       </c>
       <c r="G19" s="40" t="str">
-        <f>VLOOKUP($A19,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>ar</v>
       </c>
       <c r="H19" s="40" t="str">
-        <f>VLOOKUP($A19,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>tn</v>
       </c>
       <c r="I19" s="40">
-        <f>VLOOKUP($A19,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L19" s="1" t="s">
@@ -26591,26 +26634,26 @@
         <v>9217</v>
       </c>
       <c r="D20" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2401</v>
       </c>
       <c r="E20" s="40" t="s">
         <v>294</v>
       </c>
       <c r="F20" s="40" t="str">
-        <f>VLOOKUP($A20,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>ar_YE</v>
       </c>
       <c r="G20" s="40" t="str">
-        <f>VLOOKUP($A20,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>ar</v>
       </c>
       <c r="H20" s="40" t="str">
-        <f>VLOOKUP($A20,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>ye</v>
       </c>
       <c r="I20" s="40">
-        <f>VLOOKUP($A20,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L20" s="1" t="s">
@@ -26644,26 +26687,26 @@
         <v>1059</v>
       </c>
       <c r="D21" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0423</v>
       </c>
       <c r="E21" s="40" t="s">
         <v>1004</v>
       </c>
       <c r="F21" s="40" t="e">
-        <f>VLOOKUP($A21,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="G21" s="40" t="e">
-        <f>VLOOKUP($A21,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H21" s="40" t="e">
-        <f>VLOOKUP($A21,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I21" s="40" t="e">
-        <f>VLOOKUP($A21,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="L21" s="1" t="s">
@@ -26697,7 +26740,7 @@
         <v>1026</v>
       </c>
       <c r="D22" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0402</v>
       </c>
       <c r="E22" s="40" t="s">
@@ -26744,7 +26787,7 @@
         <v>1027</v>
       </c>
       <c r="D23" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0403</v>
       </c>
       <c r="E23" s="40" t="s">
@@ -26791,7 +26834,7 @@
         <v>1029</v>
       </c>
       <c r="D24" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0405</v>
       </c>
       <c r="E24" s="40" t="s">
@@ -26838,7 +26881,7 @@
         <v>1030</v>
       </c>
       <c r="D25" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0406</v>
       </c>
       <c r="E25" s="40" t="s">
@@ -26887,7 +26930,7 @@
         <v>1031</v>
       </c>
       <c r="D26" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0407</v>
       </c>
       <c r="E26" s="40" t="s">
@@ -26936,26 +26979,26 @@
         <v>3079</v>
       </c>
       <c r="D27" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0C07</v>
       </c>
       <c r="E27" s="40" t="s">
         <v>189</v>
       </c>
       <c r="F27" s="40" t="str">
-        <f>VLOOKUP($A27,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" ref="F27:F41" si="5">VLOOKUP($A27,$L$4:$R$110,6,FALSE)</f>
         <v>de_AT</v>
       </c>
       <c r="G27" s="40" t="str">
-        <f>VLOOKUP($A27,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" ref="G27:G41" si="6">VLOOKUP($A27,$L$4:$R$110,2,FALSE)</f>
         <v>de</v>
       </c>
       <c r="H27" s="40" t="str">
-        <f>VLOOKUP($A27,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" ref="H27:H41" si="7">VLOOKUP($A27,$L$4:$R$110,3,FALSE)</f>
         <v>at</v>
       </c>
       <c r="I27" s="40">
-        <f>VLOOKUP($A27,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" ref="I27:I41" si="8">VLOOKUP($A27,$L$4:$R$110,7,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L27" s="1" t="s">
@@ -26989,26 +27032,26 @@
         <v>2055</v>
       </c>
       <c r="D28" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0807</v>
       </c>
       <c r="E28" s="40" t="s">
         <v>180</v>
       </c>
       <c r="F28" s="40" t="str">
-        <f>VLOOKUP($A28,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>de_CH</v>
       </c>
       <c r="G28" s="40" t="str">
-        <f>VLOOKUP($A28,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>de</v>
       </c>
       <c r="H28" s="40" t="str">
-        <f>VLOOKUP($A28,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>ch</v>
       </c>
       <c r="I28" s="40">
-        <f>VLOOKUP($A28,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L28" s="1" t="s">
@@ -27044,26 +27087,26 @@
         <v>5127</v>
       </c>
       <c r="D29" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1407</v>
       </c>
       <c r="E29" s="40" t="s">
         <v>186</v>
       </c>
       <c r="F29" s="40" t="e">
-        <f>VLOOKUP($A29,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G29" s="40" t="e">
-        <f>VLOOKUP($A29,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="H29" s="40" t="e">
-        <f>VLOOKUP($A29,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="I29" s="40" t="e">
-        <f>VLOOKUP($A29,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="K29" s="53"/>
@@ -27098,26 +27141,26 @@
         <v>4103</v>
       </c>
       <c r="D30" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1007</v>
       </c>
       <c r="E30" s="40" t="s">
         <v>183</v>
       </c>
       <c r="F30" s="40" t="str">
-        <f>VLOOKUP($A30,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>de_LU</v>
       </c>
       <c r="G30" s="40" t="str">
-        <f>VLOOKUP($A30,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>de</v>
       </c>
       <c r="H30" s="40" t="str">
-        <f>VLOOKUP($A30,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>lu</v>
       </c>
       <c r="I30" s="40">
-        <f>VLOOKUP($A30,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L30" s="1" t="s">
@@ -27151,26 +27194,26 @@
         <v>1032</v>
       </c>
       <c r="D31" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0408</v>
       </c>
       <c r="E31" s="40" t="s">
         <v>177</v>
       </c>
       <c r="F31" s="52" t="e">
-        <f>VLOOKUP($A31,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G31" s="52" t="e">
-        <f>VLOOKUP($A31,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="H31" s="52" t="e">
-        <f>VLOOKUP($A31,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="I31" s="52" t="e">
-        <f>VLOOKUP($A31,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="J31" t="s">
@@ -27207,26 +27250,26 @@
         <v>3081</v>
       </c>
       <c r="D32" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0C09</v>
       </c>
       <c r="E32" s="40" t="s">
         <v>252</v>
       </c>
       <c r="F32" s="40" t="str">
-        <f>VLOOKUP($A32,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>en_AU</v>
       </c>
       <c r="G32" s="40" t="str">
-        <f>VLOOKUP($A32,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>en</v>
       </c>
       <c r="H32" s="40" t="str">
-        <f>VLOOKUP($A32,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>au</v>
       </c>
       <c r="I32" s="40">
-        <f>VLOOKUP($A32,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L32" s="1" t="s">
@@ -27260,26 +27303,26 @@
         <v>10249</v>
       </c>
       <c r="D33" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2809</v>
       </c>
       <c r="E33" s="40" t="s">
         <v>249</v>
       </c>
       <c r="F33" s="40" t="e">
-        <f>VLOOKUP($A33,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G33" s="40" t="e">
-        <f>VLOOKUP($A33,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="H33" s="40" t="e">
-        <f>VLOOKUP($A33,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="I33" s="40" t="e">
-        <f>VLOOKUP($A33,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="L33" s="1" t="s">
@@ -27313,26 +27356,26 @@
         <v>4105</v>
       </c>
       <c r="D34" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1009</v>
       </c>
       <c r="E34" s="40" t="s">
         <v>246</v>
       </c>
       <c r="F34" s="40" t="str">
-        <f>VLOOKUP($A34,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>en_CA</v>
       </c>
       <c r="G34" s="40" t="str">
-        <f>VLOOKUP($A34,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>en</v>
       </c>
       <c r="H34" s="40" t="str">
-        <f>VLOOKUP($A34,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>ca</v>
       </c>
       <c r="I34" s="40" t="str">
-        <f>VLOOKUP($A34,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>CANADA</v>
       </c>
       <c r="L34" s="1" t="s">
@@ -27366,26 +27409,26 @@
         <v>2057</v>
       </c>
       <c r="D35" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0809</v>
       </c>
       <c r="E35" s="40" t="s">
         <v>228</v>
       </c>
       <c r="F35" s="40" t="str">
-        <f>VLOOKUP($A35,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>en_GB</v>
       </c>
       <c r="G35" s="40" t="str">
-        <f>VLOOKUP($A35,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>en</v>
       </c>
       <c r="H35" s="40" t="str">
-        <f>VLOOKUP($A35,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>gb</v>
       </c>
       <c r="I35" s="40" t="str">
-        <f>VLOOKUP($A35,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>UK</v>
       </c>
       <c r="L35" s="1" t="s">
@@ -27421,26 +27464,26 @@
         <v>6153</v>
       </c>
       <c r="D36" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1809</v>
       </c>
       <c r="E36" s="40" t="s">
         <v>243</v>
       </c>
       <c r="F36" s="40" t="str">
-        <f>VLOOKUP($A36,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>en_IE</v>
       </c>
       <c r="G36" s="40" t="str">
-        <f>VLOOKUP($A36,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>en</v>
       </c>
       <c r="H36" s="40" t="str">
-        <f>VLOOKUP($A36,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>ie</v>
       </c>
       <c r="I36" s="40">
-        <f>VLOOKUP($A36,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L36" s="1" t="s">
@@ -27474,26 +27517,26 @@
         <v>8201</v>
       </c>
       <c r="D37" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2009</v>
       </c>
       <c r="E37" s="40" t="s">
         <v>240</v>
       </c>
       <c r="F37" s="40" t="e">
-        <f>VLOOKUP($A37,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G37" s="40" t="e">
-        <f>VLOOKUP($A37,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="H37" s="40" t="e">
-        <f>VLOOKUP($A37,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="I37" s="40" t="e">
-        <f>VLOOKUP($A37,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="L37" s="1" t="s">
@@ -27527,26 +27570,26 @@
         <v>5129</v>
       </c>
       <c r="D38" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1409</v>
       </c>
       <c r="E38" s="40" t="s">
         <v>237</v>
       </c>
       <c r="F38" s="40" t="str">
-        <f>VLOOKUP($A38,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>en_NZ</v>
       </c>
       <c r="G38" s="40" t="str">
-        <f>VLOOKUP($A38,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>en</v>
       </c>
       <c r="H38" s="40" t="str">
-        <f>VLOOKUP($A38,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>nz</v>
       </c>
       <c r="I38" s="40">
-        <f>VLOOKUP($A38,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L38" s="1" t="s">
@@ -27580,26 +27623,26 @@
         <v>11273</v>
       </c>
       <c r="D39" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2C09</v>
       </c>
       <c r="E39" s="40" t="s">
         <v>231</v>
       </c>
       <c r="F39" s="40" t="e">
-        <f>VLOOKUP($A39,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G39" s="40" t="e">
-        <f>VLOOKUP($A39,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="H39" s="40" t="e">
-        <f>VLOOKUP($A39,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="I39" s="40" t="e">
-        <f>VLOOKUP($A39,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="L39" s="1" t="s">
@@ -27633,26 +27676,26 @@
         <v>1033</v>
       </c>
       <c r="D40" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0409</v>
       </c>
       <c r="E40" s="40" t="s">
         <v>225</v>
       </c>
       <c r="F40" s="40" t="str">
-        <f>VLOOKUP($A40,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>en_US</v>
       </c>
       <c r="G40" s="40" t="str">
-        <f>VLOOKUP($A40,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>en</v>
       </c>
       <c r="H40" s="40" t="str">
-        <f>VLOOKUP($A40,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>us</v>
       </c>
       <c r="I40" s="40" t="str">
-        <f>VLOOKUP($A40,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>US</v>
       </c>
       <c r="L40" s="1" t="s">
@@ -27686,26 +27729,26 @@
         <v>7177</v>
       </c>
       <c r="D41" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1C09</v>
       </c>
       <c r="E41" s="40" t="s">
         <v>234</v>
       </c>
       <c r="F41" s="40" t="str">
-        <f>VLOOKUP($A41,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>en_ZA</v>
       </c>
       <c r="G41" s="40" t="str">
-        <f>VLOOKUP($A41,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>en</v>
       </c>
       <c r="H41" s="40" t="str">
-        <f>VLOOKUP($A41,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>za</v>
       </c>
       <c r="I41" s="40">
-        <f>VLOOKUP($A41,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L41" s="1" t="s">
@@ -27739,7 +27782,7 @@
         <v>1034</v>
       </c>
       <c r="D42" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>040A</v>
       </c>
       <c r="E42" s="40" t="s">
@@ -27786,26 +27829,26 @@
         <v>11274</v>
       </c>
       <c r="D43" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2C0A</v>
       </c>
       <c r="E43" s="40" t="s">
         <v>87</v>
       </c>
       <c r="F43" s="40" t="str">
-        <f>VLOOKUP($A43,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" ref="F43:F60" si="9">VLOOKUP($A43,$L$4:$R$110,6,FALSE)</f>
         <v>es_AR</v>
       </c>
       <c r="G43" s="40" t="str">
-        <f>VLOOKUP($A43,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" ref="G43:G60" si="10">VLOOKUP($A43,$L$4:$R$110,2,FALSE)</f>
         <v>es</v>
       </c>
       <c r="H43" s="40" t="str">
-        <f>VLOOKUP($A43,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" ref="H43:H60" si="11">VLOOKUP($A43,$L$4:$R$110,3,FALSE)</f>
         <v>ar</v>
       </c>
       <c r="I43" s="40">
-        <f>VLOOKUP($A43,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" ref="I43:I60" si="12">VLOOKUP($A43,$L$4:$R$110,7,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L43" s="1" t="s">
@@ -27841,26 +27884,26 @@
         <v>16394</v>
       </c>
       <c r="D44" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>400A</v>
       </c>
       <c r="E44" s="40" t="s">
         <v>84</v>
       </c>
       <c r="F44" s="40" t="str">
-        <f>VLOOKUP($A44,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>es_BO</v>
       </c>
       <c r="G44" s="40" t="str">
-        <f>VLOOKUP($A44,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>es</v>
       </c>
       <c r="H44" s="40" t="str">
-        <f>VLOOKUP($A44,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>bo</v>
       </c>
       <c r="I44" s="40">
-        <f>VLOOKUP($A44,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L44" s="1" t="s">
@@ -27896,26 +27939,26 @@
         <v>13322</v>
       </c>
       <c r="D45" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>340A</v>
       </c>
       <c r="E45" s="40" t="s">
         <v>81</v>
       </c>
       <c r="F45" s="40" t="str">
-        <f>VLOOKUP($A45,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>es_CL</v>
       </c>
       <c r="G45" s="40" t="str">
-        <f>VLOOKUP($A45,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>es</v>
       </c>
       <c r="H45" s="40" t="str">
-        <f>VLOOKUP($A45,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>cl</v>
       </c>
       <c r="I45" s="40">
-        <f>VLOOKUP($A45,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L45" s="1" t="s">
@@ -27949,26 +27992,26 @@
         <v>9226</v>
       </c>
       <c r="D46" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>240A</v>
       </c>
       <c r="E46" s="40" t="s">
         <v>78</v>
       </c>
       <c r="F46" s="40" t="str">
-        <f>VLOOKUP($A46,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>es_CO</v>
       </c>
       <c r="G46" s="40" t="str">
-        <f>VLOOKUP($A46,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>es</v>
       </c>
       <c r="H46" s="40" t="str">
-        <f>VLOOKUP($A46,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>co</v>
       </c>
       <c r="I46" s="40">
-        <f>VLOOKUP($A46,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L46" s="1" t="s">
@@ -28002,26 +28045,26 @@
         <v>5130</v>
       </c>
       <c r="D47" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>140A</v>
       </c>
       <c r="E47" s="40" t="s">
         <v>75</v>
       </c>
       <c r="F47" s="40" t="str">
-        <f>VLOOKUP($A47,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>es_CR</v>
       </c>
       <c r="G47" s="40" t="str">
-        <f>VLOOKUP($A47,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>es</v>
       </c>
       <c r="H47" s="40" t="str">
-        <f>VLOOKUP($A47,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>cr</v>
       </c>
       <c r="I47" s="40">
-        <f>VLOOKUP($A47,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L47" s="1" t="s">
@@ -28055,26 +28098,26 @@
         <v>7178</v>
       </c>
       <c r="D48" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1C0A</v>
       </c>
       <c r="E48" s="40" t="s">
         <v>72</v>
       </c>
       <c r="F48" s="40" t="str">
-        <f>VLOOKUP($A48,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>es_DO</v>
       </c>
       <c r="G48" s="40" t="str">
-        <f>VLOOKUP($A48,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>es</v>
       </c>
       <c r="H48" s="40" t="str">
-        <f>VLOOKUP($A48,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>do</v>
       </c>
       <c r="I48" s="40">
-        <f>VLOOKUP($A48,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L48" s="1" t="s">
@@ -28110,26 +28153,26 @@
         <v>12298</v>
       </c>
       <c r="D49" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>300A</v>
       </c>
       <c r="E49" s="40" t="s">
         <v>69</v>
       </c>
       <c r="F49" s="40" t="str">
-        <f>VLOOKUP($A49,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>es_EC</v>
       </c>
       <c r="G49" s="40" t="str">
-        <f>VLOOKUP($A49,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>es</v>
       </c>
       <c r="H49" s="40" t="str">
-        <f>VLOOKUP($A49,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>ec</v>
       </c>
       <c r="I49" s="40">
-        <f>VLOOKUP($A49,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L49" s="1" t="s">
@@ -28165,26 +28208,26 @@
         <v>4106</v>
       </c>
       <c r="D50" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>100A</v>
       </c>
       <c r="E50" s="40" t="s">
         <v>66</v>
       </c>
       <c r="F50" s="40" t="str">
-        <f>VLOOKUP($A50,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>es_GT</v>
       </c>
       <c r="G50" s="40" t="str">
-        <f>VLOOKUP($A50,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>es</v>
       </c>
       <c r="H50" s="40" t="str">
-        <f>VLOOKUP($A50,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>gt</v>
       </c>
       <c r="I50" s="40">
-        <f>VLOOKUP($A50,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L50" s="1" t="s">
@@ -28218,26 +28261,26 @@
         <v>18442</v>
       </c>
       <c r="D51" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>480A</v>
       </c>
       <c r="E51" s="40" t="s">
         <v>63</v>
       </c>
       <c r="F51" s="40" t="str">
-        <f>VLOOKUP($A51,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>es_HN</v>
       </c>
       <c r="G51" s="40" t="str">
-        <f>VLOOKUP($A51,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>es</v>
       </c>
       <c r="H51" s="40" t="str">
-        <f>VLOOKUP($A51,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>hn</v>
       </c>
       <c r="I51" s="40">
-        <f>VLOOKUP($A51,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L51" s="1" t="s">
@@ -28271,26 +28314,26 @@
         <v>2058</v>
       </c>
       <c r="D52" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>080A</v>
       </c>
       <c r="E52" s="40" t="s">
         <v>60</v>
       </c>
       <c r="F52" s="40" t="str">
-        <f>VLOOKUP($A52,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>es_MX</v>
       </c>
       <c r="G52" s="40" t="str">
-        <f>VLOOKUP($A52,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>es</v>
       </c>
       <c r="H52" s="40" t="str">
-        <f>VLOOKUP($A52,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>mx</v>
       </c>
       <c r="I52" s="40">
-        <f>VLOOKUP($A52,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L52" s="1" t="s">
@@ -28324,26 +28367,26 @@
         <v>19466</v>
       </c>
       <c r="D53" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4C0A</v>
       </c>
       <c r="E53" s="40" t="s">
         <v>57</v>
       </c>
       <c r="F53" s="40" t="str">
-        <f>VLOOKUP($A53,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>es_NI</v>
       </c>
       <c r="G53" s="40" t="str">
-        <f>VLOOKUP($A53,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>es</v>
       </c>
       <c r="H53" s="40" t="str">
-        <f>VLOOKUP($A53,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>ni</v>
       </c>
       <c r="I53" s="40">
-        <f>VLOOKUP($A53,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L53" s="1" t="s">
@@ -28379,26 +28422,26 @@
         <v>6154</v>
       </c>
       <c r="D54" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>180A</v>
       </c>
       <c r="E54" s="40" t="s">
         <v>54</v>
       </c>
       <c r="F54" s="40" t="str">
-        <f>VLOOKUP($A54,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>es_PA</v>
       </c>
       <c r="G54" s="40" t="str">
-        <f>VLOOKUP($A54,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>es</v>
       </c>
       <c r="H54" s="40" t="str">
-        <f>VLOOKUP($A54,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>pa</v>
       </c>
       <c r="I54" s="40">
-        <f>VLOOKUP($A54,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L54" s="1" t="s">
@@ -28432,26 +28475,26 @@
         <v>10250</v>
       </c>
       <c r="D55" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>280A</v>
       </c>
       <c r="E55" s="40" t="s">
         <v>51</v>
       </c>
       <c r="F55" s="40" t="str">
-        <f>VLOOKUP($A55,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>es_PE</v>
       </c>
       <c r="G55" s="40" t="str">
-        <f>VLOOKUP($A55,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>es</v>
       </c>
       <c r="H55" s="40" t="str">
-        <f>VLOOKUP($A55,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>pe</v>
       </c>
       <c r="I55" s="40">
-        <f>VLOOKUP($A55,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L55" s="1" t="s">
@@ -28485,26 +28528,26 @@
         <v>20490</v>
       </c>
       <c r="D56" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>500A</v>
       </c>
       <c r="E56" s="40" t="s">
         <v>48</v>
       </c>
       <c r="F56" s="40" t="str">
-        <f>VLOOKUP($A56,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>es_PR</v>
       </c>
       <c r="G56" s="40" t="str">
-        <f>VLOOKUP($A56,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>es</v>
       </c>
       <c r="H56" s="40" t="str">
-        <f>VLOOKUP($A56,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>pr</v>
       </c>
       <c r="I56" s="40">
-        <f>VLOOKUP($A56,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L56" s="1" t="s">
@@ -28538,26 +28581,26 @@
         <v>15370</v>
       </c>
       <c r="D57" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3C0A</v>
       </c>
       <c r="E57" s="40" t="s">
         <v>45</v>
       </c>
       <c r="F57" s="40" t="str">
-        <f>VLOOKUP($A57,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>es_PY</v>
       </c>
       <c r="G57" s="40" t="str">
-        <f>VLOOKUP($A57,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>es</v>
       </c>
       <c r="H57" s="40" t="str">
-        <f>VLOOKUP($A57,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>py</v>
       </c>
       <c r="I57" s="40">
-        <f>VLOOKUP($A57,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L57" s="1" t="s">
@@ -28591,26 +28634,26 @@
         <v>17418</v>
       </c>
       <c r="D58" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>440A</v>
       </c>
       <c r="E58" s="40" t="s">
         <v>42</v>
       </c>
       <c r="F58" s="40" t="str">
-        <f>VLOOKUP($A58,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>es_SV</v>
       </c>
       <c r="G58" s="40" t="str">
-        <f>VLOOKUP($A58,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>es</v>
       </c>
       <c r="H58" s="40" t="str">
-        <f>VLOOKUP($A58,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>sv</v>
       </c>
       <c r="I58" s="40">
-        <f>VLOOKUP($A58,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L58" s="1" t="s">
@@ -28644,26 +28687,26 @@
         <v>14346</v>
       </c>
       <c r="D59" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>380A</v>
       </c>
       <c r="E59" s="40" t="s">
         <v>39</v>
       </c>
       <c r="F59" s="40" t="str">
-        <f>VLOOKUP($A59,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>es_UY</v>
       </c>
       <c r="G59" s="40" t="str">
-        <f>VLOOKUP($A59,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>es</v>
       </c>
       <c r="H59" s="40" t="str">
-        <f>VLOOKUP($A59,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>uy</v>
       </c>
       <c r="I59" s="40">
-        <f>VLOOKUP($A59,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L59" s="1" t="s">
@@ -28697,26 +28740,26 @@
         <v>8202</v>
       </c>
       <c r="D60" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>200A</v>
       </c>
       <c r="E60" s="40" t="s">
         <v>36</v>
       </c>
       <c r="F60" s="40" t="str">
-        <f>VLOOKUP($A60,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>es_VE</v>
       </c>
       <c r="G60" s="40" t="str">
-        <f>VLOOKUP($A60,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>es</v>
       </c>
       <c r="H60" s="40" t="str">
-        <f>VLOOKUP($A60,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>ve</v>
       </c>
       <c r="I60" s="40">
-        <f>VLOOKUP($A60,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L60" s="1" t="s">
@@ -28750,7 +28793,7 @@
         <v>1061</v>
       </c>
       <c r="D61" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0425</v>
       </c>
       <c r="E61" s="40" t="s">
@@ -28797,7 +28840,7 @@
         <v>1069</v>
       </c>
       <c r="D62" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>042D</v>
       </c>
       <c r="E62" s="40" t="s">
@@ -28850,7 +28893,7 @@
         <v>1065</v>
       </c>
       <c r="D63" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0429</v>
       </c>
       <c r="E63" s="40" t="s">
@@ -28903,7 +28946,7 @@
         <v>1035</v>
       </c>
       <c r="D64" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>040B</v>
       </c>
       <c r="E64" s="40" t="s">
@@ -28952,7 +28995,7 @@
         <v>1080</v>
       </c>
       <c r="D65" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0438</v>
       </c>
       <c r="E65" s="40" t="s">
@@ -29005,7 +29048,7 @@
         <v>1036</v>
       </c>
       <c r="D66" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>040C</v>
       </c>
       <c r="E66" s="40" t="s">
@@ -29056,7 +29099,7 @@
         <v>2060</v>
       </c>
       <c r="D67" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>080C</v>
       </c>
       <c r="E67" s="40" t="s">
@@ -29109,7 +29152,7 @@
         <v>3084</v>
       </c>
       <c r="D68" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0C0C</v>
       </c>
       <c r="E68" s="40" t="s">
@@ -29164,7 +29207,7 @@
         <v>4108</v>
       </c>
       <c r="D69" s="40" t="str">
-        <f t="shared" ref="D69:D119" si="1">TRIM(SUBSTITUTE(B69, "0x", ""))</f>
+        <f t="shared" ref="D69:D119" si="13">TRIM(SUBSTITUTE(B69, "0x", ""))</f>
         <v>100C</v>
       </c>
       <c r="E69" s="40" t="s">
@@ -29217,7 +29260,7 @@
         <v>5132</v>
       </c>
       <c r="D70" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>140C</v>
       </c>
       <c r="E70" s="40" t="s">
@@ -29270,7 +29313,7 @@
         <v>1084</v>
       </c>
       <c r="D71" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>043C</v>
       </c>
       <c r="E71" s="40" t="s">
@@ -29323,7 +29366,7 @@
         <v>1037</v>
       </c>
       <c r="D72" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>040D</v>
       </c>
       <c r="E72" s="40" t="s">
@@ -29370,7 +29413,7 @@
         <v>1081</v>
       </c>
       <c r="D73" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0439</v>
       </c>
       <c r="E73" s="40" t="s">
@@ -29417,7 +29460,7 @@
         <v>1050</v>
       </c>
       <c r="D74" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>041A</v>
       </c>
       <c r="E74" s="40" t="s">
@@ -29464,7 +29507,7 @@
         <v>1038</v>
       </c>
       <c r="D75" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>040E</v>
       </c>
       <c r="E75" s="40" t="s">
@@ -29511,7 +29554,7 @@
         <v>1057</v>
       </c>
       <c r="D76" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0421</v>
       </c>
       <c r="E76" s="40" t="s">
@@ -29558,7 +29601,7 @@
         <v>1039</v>
       </c>
       <c r="D77" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>040F</v>
       </c>
       <c r="E77" s="40" t="s">
@@ -29605,7 +29648,7 @@
         <v>1040</v>
       </c>
       <c r="D78" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0410</v>
       </c>
       <c r="E78" s="40" t="s">
@@ -29654,7 +29697,7 @@
         <v>2064</v>
       </c>
       <c r="D79" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0810</v>
       </c>
       <c r="E79" s="40" t="s">
@@ -29707,7 +29750,7 @@
         <v>1041</v>
       </c>
       <c r="D80" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0411</v>
       </c>
       <c r="E80" s="40" t="s">
@@ -29756,7 +29799,7 @@
         <v>1085</v>
       </c>
       <c r="D81" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>043D</v>
       </c>
       <c r="E81" s="40" t="s">
@@ -29809,7 +29852,7 @@
         <v>1042</v>
       </c>
       <c r="D82" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0412</v>
       </c>
       <c r="E82" s="40" t="s">
@@ -29858,7 +29901,7 @@
         <v>1063</v>
       </c>
       <c r="D83" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0427</v>
       </c>
       <c r="E83" s="40" t="s">
@@ -29905,7 +29948,7 @@
         <v>1062</v>
       </c>
       <c r="D84" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0426</v>
       </c>
       <c r="E84" s="40" t="s">
@@ -29952,7 +29995,7 @@
         <v>1071</v>
       </c>
       <c r="D85" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>042F</v>
       </c>
       <c r="E85" s="40" t="s">
@@ -29999,7 +30042,7 @@
         <v>1086</v>
       </c>
       <c r="D86" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>043E</v>
       </c>
       <c r="E86" s="40" t="s">
@@ -30046,7 +30089,7 @@
         <v>1082</v>
       </c>
       <c r="D87" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>043A</v>
       </c>
       <c r="E87" s="40" t="s">
@@ -30093,7 +30136,7 @@
         <v>1043</v>
       </c>
       <c r="D88" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0413</v>
       </c>
       <c r="E88" s="40" t="s">
@@ -30140,7 +30183,7 @@
         <v>2067</v>
       </c>
       <c r="D89" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0813</v>
       </c>
       <c r="E89" s="40" t="s">
@@ -30193,7 +30236,7 @@
         <v>1044</v>
       </c>
       <c r="D90" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0414</v>
       </c>
       <c r="E90" s="40" t="s">
@@ -30240,7 +30283,7 @@
         <v>1045</v>
       </c>
       <c r="D91" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0415</v>
       </c>
       <c r="E91" s="40" t="s">
@@ -30287,7 +30330,7 @@
         <v>2070</v>
       </c>
       <c r="D92" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0816</v>
       </c>
       <c r="E92" s="40" t="s">
@@ -30334,7 +30377,7 @@
         <v>1046</v>
       </c>
       <c r="D93" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0416</v>
       </c>
       <c r="E93" s="40" t="s">
@@ -30387,7 +30430,7 @@
         <v>1047</v>
       </c>
       <c r="D94" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0417</v>
       </c>
       <c r="E94" s="40" t="s">
@@ -30440,7 +30483,7 @@
         <v>1048</v>
       </c>
       <c r="D95" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0418</v>
       </c>
       <c r="E95" s="40" t="s">
@@ -30487,7 +30530,7 @@
         <v>2072</v>
       </c>
       <c r="D96" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0818</v>
       </c>
       <c r="E96" s="40" t="s">
@@ -30540,7 +30583,7 @@
         <v>1049</v>
       </c>
       <c r="D97" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0419</v>
       </c>
       <c r="E97" s="40" t="s">
@@ -30587,7 +30630,7 @@
         <v>2073</v>
       </c>
       <c r="D98" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0819</v>
       </c>
       <c r="E98" s="40" t="s">
@@ -30640,7 +30683,7 @@
         <v>1070</v>
       </c>
       <c r="D99" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>042E</v>
       </c>
       <c r="E99" s="40" t="s">
@@ -30693,7 +30736,7 @@
         <v>1051</v>
       </c>
       <c r="D100" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>041B</v>
       </c>
       <c r="E100" s="40" t="s">
@@ -30740,7 +30783,7 @@
         <v>1060</v>
       </c>
       <c r="D101" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0424</v>
       </c>
       <c r="E101" s="40" t="s">
@@ -30787,7 +30830,7 @@
         <v>1052</v>
       </c>
       <c r="D102" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>041C</v>
       </c>
       <c r="E102" s="40" t="s">
@@ -30840,7 +30883,7 @@
         <v>3098</v>
       </c>
       <c r="D103" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0C1A</v>
       </c>
       <c r="E103" s="40" t="s">
@@ -30896,7 +30939,7 @@
         <v>1053</v>
       </c>
       <c r="D104" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>041D</v>
       </c>
       <c r="E104" s="40" t="s">
@@ -30943,7 +30986,7 @@
         <v>2077</v>
       </c>
       <c r="D105" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>081D</v>
       </c>
       <c r="E105" s="40" t="s">
@@ -30990,7 +31033,7 @@
         <v>1072</v>
       </c>
       <c r="D106" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0430</v>
       </c>
       <c r="E106" s="40" t="s">
@@ -31043,7 +31086,7 @@
         <v>1054</v>
       </c>
       <c r="D107" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>041E</v>
       </c>
       <c r="E107" s="40" t="s">
@@ -31090,7 +31133,7 @@
         <v>1074</v>
       </c>
       <c r="D108" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0432</v>
       </c>
       <c r="E108" s="40" t="s">
@@ -31143,7 +31186,7 @@
         <v>1055</v>
       </c>
       <c r="D109" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>041F</v>
       </c>
       <c r="E109" s="40" t="s">
@@ -31190,7 +31233,7 @@
         <v>1073</v>
       </c>
       <c r="D110" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0431</v>
       </c>
       <c r="E110" s="40" t="s">
@@ -31243,7 +31286,7 @@
         <v>1058</v>
       </c>
       <c r="D111" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0422</v>
       </c>
       <c r="E111" s="40" t="s">
@@ -31271,7 +31314,7 @@
         <v>1056</v>
       </c>
       <c r="D112" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0420</v>
       </c>
       <c r="E112" s="40" t="s">
@@ -31305,7 +31348,7 @@
         <v>1066</v>
       </c>
       <c r="D113" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>042A</v>
       </c>
       <c r="E113" s="40" t="s">
@@ -31333,26 +31376,26 @@
         <v>1076</v>
       </c>
       <c r="D114" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0434</v>
       </c>
       <c r="E114" s="40" t="s">
         <v>6</v>
       </c>
       <c r="F114" s="40" t="e">
-        <f>VLOOKUP($A114,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" ref="F114:F119" si="14">VLOOKUP($A114,$L$4:$R$110,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G114" s="40" t="e">
-        <f>VLOOKUP($A114,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" ref="G114:G119" si="15">VLOOKUP($A114,$L$4:$R$110,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H114" s="40" t="e">
-        <f>VLOOKUP($A114,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" ref="H114:H119" si="16">VLOOKUP($A114,$L$4:$R$110,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I114" s="40" t="e">
-        <f>VLOOKUP($A114,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" ref="I114:I119" si="17">VLOOKUP($A114,$L$4:$R$110,7,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -31367,26 +31410,26 @@
         <v>2052</v>
       </c>
       <c r="D115" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0804</v>
       </c>
       <c r="E115" s="40" t="s">
         <v>279</v>
       </c>
       <c r="F115" s="40" t="str">
-        <f>VLOOKUP($A115,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>zh_CN</v>
       </c>
       <c r="G115" s="40" t="str">
-        <f>VLOOKUP($A115,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>zh</v>
       </c>
       <c r="H115" s="40" t="str">
-        <f>VLOOKUP($A115,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>cn</v>
       </c>
       <c r="I115" s="40" t="str">
-        <f>VLOOKUP($A115,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>PRC</v>
       </c>
     </row>
@@ -31401,26 +31444,26 @@
         <v>3076</v>
       </c>
       <c r="D116" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0C04</v>
       </c>
       <c r="E116" s="40" t="s">
         <v>276</v>
       </c>
       <c r="F116" s="40" t="str">
-        <f>VLOOKUP($A116,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>zh_HK</v>
       </c>
       <c r="G116" s="40" t="str">
-        <f>VLOOKUP($A116,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>zh</v>
       </c>
       <c r="H116" s="40" t="str">
-        <f>VLOOKUP($A116,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>hk</v>
       </c>
       <c r="I116" s="40">
-        <f>VLOOKUP($A116,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -31435,26 +31478,26 @@
         <v>4100</v>
       </c>
       <c r="D117" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>1004</v>
       </c>
       <c r="E117" s="40" t="s">
         <v>273</v>
       </c>
       <c r="F117" s="40" t="str">
-        <f>VLOOKUP($A117,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>zh_SG</v>
       </c>
       <c r="G117" s="40" t="str">
-        <f>VLOOKUP($A117,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>zh</v>
       </c>
       <c r="H117" s="40" t="str">
-        <f>VLOOKUP($A117,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>sg</v>
       </c>
       <c r="I117" s="40">
-        <f>VLOOKUP($A117,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -31469,26 +31512,26 @@
         <v>1028</v>
       </c>
       <c r="D118" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0404</v>
       </c>
       <c r="E118" s="40" t="s">
         <v>270</v>
       </c>
       <c r="F118" s="40" t="str">
-        <f>VLOOKUP($A118,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>zh_TW</v>
       </c>
       <c r="G118" s="40" t="str">
-        <f>VLOOKUP($A118,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>zh</v>
       </c>
       <c r="H118" s="40" t="str">
-        <f>VLOOKUP($A118,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>tw</v>
       </c>
       <c r="I118" s="40" t="str">
-        <f>VLOOKUP($A118,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>TAIWAN</v>
       </c>
     </row>
@@ -31503,57 +31546,57 @@
         <v>1077</v>
       </c>
       <c r="D119" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0435</v>
       </c>
       <c r="E119" s="40" t="s">
         <v>0</v>
       </c>
       <c r="F119" s="40" t="e">
-        <f>VLOOKUP($A119,$L$4:$R$110,6,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G119" s="40" t="e">
-        <f>VLOOKUP($A119,$L$4:$R$110,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H119" s="40" t="e">
-        <f>VLOOKUP($A119,$L$4:$R$110,3,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I119" s="40" t="e">
-        <f>VLOOKUP($A119,$L$4:$R$110,7,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="Q26" r:id="rId1" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale"/>
-    <hyperlink ref="Q38" r:id="rId2" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale"/>
-    <hyperlink ref="Q40" r:id="rId3" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale"/>
-    <hyperlink ref="Q41" r:id="rId4" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale"/>
-    <hyperlink ref="Q56" r:id="rId5" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale"/>
-    <hyperlink ref="Q62" r:id="rId6" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale"/>
-    <hyperlink ref="Q63" r:id="rId7" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale"/>
-    <hyperlink ref="Q72" r:id="rId8" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale"/>
-    <hyperlink ref="Q73" r:id="rId9" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale"/>
-    <hyperlink ref="Q77" r:id="rId10" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale"/>
-    <hyperlink ref="Q78" r:id="rId11" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale"/>
-    <hyperlink ref="Q81" r:id="rId12" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale"/>
-    <hyperlink ref="Q82" r:id="rId13" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale"/>
-    <hyperlink ref="Q102" r:id="rId14" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale"/>
+    <hyperlink ref="Q26" r:id="rId1" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="Q38" r:id="rId2" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="Q40" r:id="rId3" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="Q41" r:id="rId4" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="Q56" r:id="rId5" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="Q62" r:id="rId6" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="Q63" r:id="rId7" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="Q72" r:id="rId8" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="Q73" r:id="rId9" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="Q77" r:id="rId10" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="Q78" r:id="rId11" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="Q81" r:id="rId12" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
+    <hyperlink ref="Q82" r:id="rId13" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
+    <hyperlink ref="Q102" r:id="rId14" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D114"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -34191,47 +34234,21 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="C30" r:id="rId1" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale"/>
-    <hyperlink ref="C42" r:id="rId2" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale"/>
-    <hyperlink ref="C44" r:id="rId3" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale"/>
-    <hyperlink ref="C45" r:id="rId4" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale"/>
-    <hyperlink ref="C60" r:id="rId5" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale"/>
-    <hyperlink ref="C66" r:id="rId6" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale"/>
-    <hyperlink ref="C67" r:id="rId7" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale"/>
-    <hyperlink ref="C76" r:id="rId8" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale"/>
-    <hyperlink ref="C77" r:id="rId9" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale"/>
-    <hyperlink ref="C81" r:id="rId10" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale"/>
-    <hyperlink ref="C82" r:id="rId11" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale"/>
-    <hyperlink ref="C85" r:id="rId12" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale"/>
-    <hyperlink ref="C86" r:id="rId13" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale"/>
-    <hyperlink ref="C106" r:id="rId14" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale"/>
+    <hyperlink ref="C30" r:id="rId1" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="C42" r:id="rId2" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="C44" r:id="rId3" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="C45" r:id="rId4" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="C60" r:id="rId5" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="C66" r:id="rId6" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="C67" r:id="rId7" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="C76" r:id="rId8" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="C77" r:id="rId9" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
+    <hyperlink ref="C81" r:id="rId10" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
+    <hyperlink ref="C82" r:id="rId11" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
+    <hyperlink ref="C85" r:id="rId12" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
+    <hyperlink ref="C86" r:id="rId13" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
+    <hyperlink ref="C106" r:id="rId14" location="cldrlocale" display="https://docs.oracle.com/javase/jp/6/technotes/guides/intl/locale.doc.html - cldrlocale" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>